--- a/resources/static/assets/uploads/imdb_Actors_roles.xlsx
+++ b/resources/static/assets/uploads/imdb_Actors_roles.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
   <si>
     <t>actor_id</t>
   </si>
@@ -40,6 +40,15 @@
     <t>Himself</t>
   </si>
   <si>
+    <t>Dirk Jan</t>
+  </si>
+  <si>
+    <t>Froilán plaza del estudiante</t>
+  </si>
+  <si>
+    <t>Chavo Banda Galerias</t>
+  </si>
+  <si>
     <t>Staff Humorist (1996)</t>
   </si>
   <si>
@@ -49,13 +58,10 @@
     <t>Segundo Cuadro Flamenco 'Tang</t>
   </si>
   <si>
-    <t>Chavo Banda Galerias</t>
-  </si>
-  <si>
     <t>Tercer Cuadro Flamenco 'Solea</t>
   </si>
   <si>
-    <t>Froilán plaza del estudiante</t>
+    <t>Oudste zoon (1993)</t>
   </si>
   <si>
     <t>Cuarto Cuadro Flamenco 'Taran</t>
@@ -83,12 +89,6 @@
   </si>
   <si>
     <t>Victoriano</t>
-  </si>
-  <si>
-    <t>Dirk Jan</t>
-  </si>
-  <si>
-    <t>Oudste zoon (1993)</t>
   </si>
   <si>
     <t>Officier van Justitie</t>
@@ -120,10 +120,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -131,6 +131,120 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -142,92 +256,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,37 +272,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -287,19 +287,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,96 +443,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -413,7 +455,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,49 +467,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,6 +478,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -496,22 +514,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -540,6 +553,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -554,44 +578,20 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -601,130 +601,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1053,8 +1053,8 @@
   <sheetPr/>
   <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="2"/>
@@ -1125,28 +1125,37 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9">
         <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1157,7 +1166,7 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1176,7 +1185,7 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1187,7 +1196,7 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1198,7 +1207,7 @@
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1209,7 +1218,7 @@
         <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1220,15 +1229,18 @@
         <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>14</v>
       </c>
       <c r="B17">
         <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1239,7 +1251,7 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1250,7 +1262,7 @@
         <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1261,7 +1273,7 @@
         <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1283,7 +1295,7 @@
         <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1294,7 +1306,7 @@
         <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1316,7 +1328,7 @@
         <v>18</v>
       </c>
       <c r="C25" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1338,15 +1350,18 @@
         <v>17</v>
       </c>
       <c r="C27" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28">
         <v>20</v>
       </c>
       <c r="B28">
         <v>16</v>
+      </c>
+      <c r="C28" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1357,7 +1372,7 @@
         <v>15</v>
       </c>
       <c r="C29" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1368,15 +1383,18 @@
         <v>13</v>
       </c>
       <c r="C30" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31">
         <v>21</v>
       </c>
       <c r="B31">
         <v>11</v>
+      </c>
+      <c r="C31" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1387,15 +1405,18 @@
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33">
         <v>22</v>
       </c>
       <c r="B33">
         <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1406,7 +1427,7 @@
         <v>12</v>
       </c>
       <c r="C34" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1442,11 +1463,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:3">
       <c r="A38">
         <v>27</v>
       </c>
       <c r="B38">
+        <v>9</v>
+      </c>
+      <c r="C38" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1593,12 +1617,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:3">
       <c r="A52">
         <v>28</v>
       </c>
       <c r="B52">
         <v>5</v>
+      </c>
+      <c r="C52" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="53" spans="1:3">
